--- a/密记数据库设计.xlsx
+++ b/密记数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tb_user" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="64">
   <si>
     <t>用户信息表：tb_user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,6 +268,10 @@
   </si>
   <si>
     <t>操作的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码信息表：tb_history_password</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -340,12 +344,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -666,14 +670,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -815,7 +819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -829,14 +833,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
@@ -877,106 +881,106 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1008,14 +1012,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
@@ -1056,52 +1060,52 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1140,20 +1144,20 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1170,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1184,14 +1188,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
@@ -1232,106 +1236,106 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="7" t="s">
         <v>46</v>
       </c>
     </row>

--- a/密记数据库设计.xlsx
+++ b/密记数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tb_user" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="68">
   <si>
     <t>用户信息表：tb_user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,14 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,14 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nvarchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作的类型：登陆，查询，删除，修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>remark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>空字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>操作备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,6 +252,41 @@
   </si>
   <si>
     <t>密码信息表：tb_history_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字，以英文逗号分隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作的类型：登陆，查询，删除，修改,注册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,13 +737,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
@@ -746,7 +761,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
@@ -758,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>21</v>
@@ -778,7 +793,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>13</v>
@@ -817,10 +832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G10"/>
+  <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -834,7 +849,7 @@
   <sheetData>
     <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -885,17 +900,17 @@
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -906,14 +921,14 @@
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -929,59 +944,79 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="G8" s="5" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="7" t="s">
+      <c r="E11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -997,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1013,7 +1048,7 @@
   <sheetData>
     <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1046,7 +1081,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>13</v>
@@ -1056,15 +1091,15 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>13</v>
@@ -1072,7 +1107,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1080,17 +1115,19 @@
         <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="G6" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1106,12 +1143,12 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
@@ -1122,43 +1159,41 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1172,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G10"/>
+  <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1189,7 +1224,7 @@
   <sheetData>
     <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1240,17 +1275,17 @@
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1261,14 +1296,14 @@
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1284,59 +1319,81 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="G8" s="5" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="7" t="s">
+      <c r="E11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
